--- a/Collisions.xlsx
+++ b/Collisions.xlsx
@@ -197,7 +197,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.37</c:v>
@@ -1252,7 +1252,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,7 +1270,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
